--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -55,12 +58,6 @@
     <t>illegal</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
@@ -70,57 +67,57 @@
     <t>stupid</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -130,22 +127,25 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>thanks</t>
@@ -157,7 +157,7 @@
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>worth</t>
   </si>
   <si>
     <t>first</t>
@@ -166,61 +166,43 @@
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>social</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>right</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>twitter</t>
+    <t>media</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>watch</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>dilemma</t>
+    <t>’</t>
   </si>
   <si>
     <t>watching</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -584,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -706,10 +688,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,16 +806,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.82</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9326923076923077</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.7543859649122807</v>
+        <v>0.68</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9230769230769231</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.7466666666666667</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.7241379310344828</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8939393939393939</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.6111111111111112</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1053,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.5666666666666667</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8333333333333334</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,16 +1156,16 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.5263157894736842</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.5151515151515151</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6857142857142857</v>
+        <v>0.675</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.4166666666666667</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6842105263157895</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1321,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,16 +1356,16 @@
         <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.2682926829268293</v>
+        <v>0.2641165755919854</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1395,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1403,13 +1385,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,16 +1406,16 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.2550091074681239</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L18">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1445,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>818</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1453,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6376811594202898</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C19">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1471,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.2372881355932203</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1495,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1503,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1521,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20">
         <v>0.2037037037037037</v>
@@ -1553,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5957446808510638</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1571,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.2</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1595,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1603,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5652173913043478</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1621,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.2</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1645,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,16 +1656,16 @@
         <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.180327868852459</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1695,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1703,13 +1685,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5357142857142857</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1721,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.1411764705882353</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1745,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1753,7 +1735,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5294117647058824</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -1771,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.136986301369863</v>
+        <v>0.07078313253012049</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1795,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>63</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1803,13 +1785,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4615384615384616</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1821,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.1267605633802817</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="L26">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1845,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>62</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1853,37 +1835,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4615384615384616</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>18</v>
       </c>
-      <c r="D27">
-        <v>18</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>21</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.08759124087591241</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L27">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1895,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>125</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1903,13 +1885,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3571428571428572</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1921,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.05185185185185185</v>
+        <v>0.03585147247119078</v>
       </c>
       <c r="L28">
         <v>28</v>
@@ -1945,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>512</v>
+        <v>753</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1953,13 +1935,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3571428571428572</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1971,19 +1953,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.04969879518072289</v>
+        <v>0.02639296187683285</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1995,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>631</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2003,37 +1985,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2051282051282051</v>
+        <v>0.04713804713804714</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>16</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.04707792207792208</v>
+        <v>0.02534562211981567</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2045,161 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.05351170568561873</v>
-      </c>
-      <c r="C31">
-        <v>16</v>
-      </c>
-      <c r="D31">
-        <v>16</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>283</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31">
-        <v>0.04240282685512368</v>
-      </c>
-      <c r="L31">
-        <v>12</v>
-      </c>
-      <c r="M31">
-        <v>12</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32">
-        <v>0.04126984126984127</v>
-      </c>
-      <c r="L32">
-        <v>13</v>
-      </c>
-      <c r="M32">
-        <v>13</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33">
-        <v>0.03812316715542522</v>
-      </c>
-      <c r="L33">
-        <v>13</v>
-      </c>
-      <c r="M33">
-        <v>13</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34">
-        <v>0.03585147247119078</v>
-      </c>
-      <c r="L34">
-        <v>28</v>
-      </c>
-      <c r="M34">
-        <v>28</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35">
-        <v>0.02304147465437788</v>
-      </c>
-      <c r="L35">
-        <v>40</v>
-      </c>
-      <c r="M35">
-        <v>40</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
   </sheetData>
